--- a/data/trans_camb/P16A07-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P16A07-Habitat-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1054,7 +1054,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1270,7 +1270,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">

--- a/data/trans_camb/P16A07-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P16A07-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,32</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,43</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,5</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,02</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,09</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,23</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,17</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,73</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,72</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,86; 4,4</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,39; 6,19</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,46; 8,01</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,53; 7,98</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,74; 13,63</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,8; 2,96</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,41; 5,01</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,54; 8,34</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,34; 3,67</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>144,48%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>156,99%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>273,65%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,05%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>107,43%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-21,73%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>35,79%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>114,09%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,14%</t>
         </is>
       </c>
     </row>
@@ -806,32 +806,32 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-59,8; 318,14</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,81; 442,25</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-72,79; 130,86</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,95; 297,86</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,08; 548,77</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,17; 226,16</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,87</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,74</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,77</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,2</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,6</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,1</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,66</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,07</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,48</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,85; 0,92</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,95; -0,17</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,77; 4,11</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,85; 7,47</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,25; 5,06</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,46; 3,57</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,1; 3,5</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,81; 1,69</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,4; 3,19</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-25,02%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-49,77%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>50,63%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>68,07%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>25,83%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,81%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>34,31%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,38%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>30,53%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-63,13; 39,77</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-80,6; -1,77</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,11; 158,03</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,17; 157,95</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,36; 103,22</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,54; 75,29</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,34; 84,82</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,75; 44,2</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,5; 82,02</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,24</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,6</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,14</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,62</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,78</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,43</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,09</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,25; 2,96</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,8; 0,63</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,27; 1,49</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,76; 4,11</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,68; 3,06</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,08; 2,15</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,02; 2,85</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,23; 1,52</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,13; 1,4</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>53,27%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-25,9%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,07%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,88%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,05%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,37%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>32,36%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,52%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,15%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,09; 172,26</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-63,81; 44,08</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-41,11; 99,01</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,55; 75,74</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,2; 56,13</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,29; 41,53</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,13; 75,0</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,61; 42,15</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,95; 38,84</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,72</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,63</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,95</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,42</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,31</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,95</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,1</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,18</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,14</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,77; 2,24</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,73; 2,02</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,53; 3,58</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,19; 3,87</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,78; 2,18</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,19; 4,76</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,46; 2,58</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,2; 1,5</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,54; 3,71</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>50,38%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>43,9%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>136,75%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,77%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,36%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>33,86%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>30,51%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,97%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>59,43%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,21; 252,45</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,41; 223,52</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,5; 408,47</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,13; 81,17</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,08; 54,82</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,24; 107,68</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,81; 88,1</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,51; 54,06</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,37; 126,64</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,18</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,25</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,85</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,42</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,18</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,88</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,79</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,7</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,96</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,73; 3,95</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,19; 2,68</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,48; 3,29</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,08; 3,67</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,93; 2,7</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,39; 3,79</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,3; 3,27</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,62; 2,08</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,56; 3,33</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>122,13%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>69,98%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>103,34%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,89%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,5%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>26,37%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>39,03%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,24%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>42,81%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>24,83; 318,89</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,17; 224,32</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,65; 269,18</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,65; 59,19</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,77; 45,26</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,02; 63,56</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,42; 83,35</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,46; 53,09</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,99; 85,61</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,01</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,34</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,91</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,64</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,13</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,47</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,36</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,32</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,16; 1,83</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,63; 0,75</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,48; 2,14</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,64; 3,25</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,59; 1,9</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,21; 2,29</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,67; 2,19</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,27; 1,17</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,53; 1,91</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>47,41%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,15%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>62,5%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>29,52%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,98%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,48%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>34,04%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,42%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>30,46%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,37; 99,44</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,38; 43,5</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,29; 115,88</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,78; 55,49</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,42; 32,59</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,44; 39,73</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,81; 56,27</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,81; 29,43</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,25; 48,01</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16A07-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P16A07-Habitat-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,32</t>
+          <t>-0,51</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,43</t>
+          <t>-1,21</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,5</t>
+          <t>1,76</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,02</t>
+          <t>3,69</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>6,09</t>
+          <t>2,35</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-1,23</t>
+          <t>0,62</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>1,17</t>
+          <t>1,58</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>3,73</t>
+          <t>0,57</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,72</t>
+          <t>1,22</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 4,4</t>
+          <t>-2,26; 1,17</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 6,19</t>
+          <t>-2,84; 0,3</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 8,01</t>
+          <t>-0,34; 3,93</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,53; 7,98</t>
+          <t>0,85; 6,43</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 13,63</t>
+          <t>-0,44; 5,25</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-6,8; 2,96</t>
+          <t>-1,62; 2,74</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-2,41; 5,01</t>
+          <t>-0,2; 3,13</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 8,34</t>
+          <t>-1,0; 2,22</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 3,67</t>
+          <t>-0,4; 2,68</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>144,48%</t>
+          <t>-16,58%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>156,99%</t>
+          <t>-39,39%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>273,65%</t>
+          <t>57,29%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>18,05%</t>
+          <t>60,61%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>107,43%</t>
+          <t>38,58%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-21,73%</t>
+          <t>10,19%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>35,79%</t>
+          <t>34,6%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>114,09%</t>
+          <t>12,5%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>22,14%</t>
+          <t>26,74%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-55,32; 54,82</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-71,19; 18,72</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,77; 178,61</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-59,8; 318,14</t>
+          <t>12,24; 133,84</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-11,81; 442,25</t>
+          <t>-6,1; 105,69</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-72,79; 130,86</t>
+          <t>-20,99; 60,09</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-52,95; 297,86</t>
+          <t>-4,3; 80,65</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-17,08; 548,77</t>
+          <t>-19,99; 57,31</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-51,17; 226,16</t>
+          <t>-7,57; 69,56</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,87</t>
+          <t>1,24</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,74</t>
+          <t>-0,6</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,77</t>
+          <t>-0,26</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>4,2</t>
+          <t>1,62</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>1,6</t>
+          <t>0,78</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,1</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>1,66</t>
+          <t>1,43</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-0,07</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>1,48</t>
+          <t>-0,36</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,85; 0,92</t>
+          <t>-0,25; 2,96</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,95; -0,17</t>
+          <t>-1,8; 0,63</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 4,11</t>
+          <t>-1,87; 1,08</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,85; 7,47</t>
+          <t>-0,76; 4,11</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,25; 5,06</t>
+          <t>-1,68; 3,06</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,46; 3,57</t>
+          <t>-2,08; 2,18</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,1; 3,5</t>
+          <t>0,02; 2,85</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,81; 1,69</t>
+          <t>-1,23; 1,52</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,4; 3,19</t>
+          <t>-1,89; 1,05</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-25,02%</t>
+          <t>53,27%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-49,77%</t>
+          <t>-25,9%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>50,63%</t>
+          <t>-11,11%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>68,07%</t>
+          <t>24,88%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>25,83%</t>
+          <t>12,05%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>17,81%</t>
+          <t>0,63%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>34,31%</t>
+          <t>32,36%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-1,38%</t>
+          <t>2,52%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>30,53%</t>
+          <t>-8,15%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-63,13; 39,77</t>
+          <t>-11,09; 172,26</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-80,6; -1,77</t>
+          <t>-63,81; 44,08</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-19,11; 158,03</t>
+          <t>-63,75; 60,52</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>10,17; 157,95</t>
+          <t>-12,55; 75,74</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-18,36; 103,22</t>
+          <t>-21,2; 56,13</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-20,54; 75,29</t>
+          <t>-27,19; 42,18</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 84,82</t>
+          <t>0,13; 75,0</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-30,75; 44,2</t>
+          <t>-25,61; 42,15</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-7,5; 82,02</t>
+          <t>-37,87; 26,95</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,24</t>
+          <t>0,72</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,6</t>
+          <t>0,63</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,14</t>
+          <t>1,9</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,62</t>
+          <t>1,42</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,78</t>
+          <t>-0,31</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,82</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>1,43</t>
+          <t>1,1</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>0,18</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>1,58</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 2,96</t>
+          <t>-0,77; 2,24</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,8; 0,63</t>
+          <t>-0,73; 2,02</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 1,49</t>
+          <t>0,49; 3,53</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 4,11</t>
+          <t>-1,19; 3,87</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 3,06</t>
+          <t>-2,78; 2,18</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,08; 2,15</t>
+          <t>-2,94; 4,01</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,02; 2,85</t>
+          <t>-0,46; 2,58</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 1,52</t>
+          <t>-1,2; 1,5</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-1,13; 1,4</t>
+          <t>-0,37; 3,13</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>53,27%</t>
+          <t>50,38%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-25,9%</t>
+          <t>43,9%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>6,07%</t>
+          <t>132,79%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>24,88%</t>
+          <t>24,77%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>12,05%</t>
+          <t>-5,36%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,37%</t>
+          <t>14,24%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>32,36%</t>
+          <t>30,51%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>2,52%</t>
+          <t>4,97%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>2,15%</t>
+          <t>43,81%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-11,09; 172,26</t>
+          <t>-47,21; 252,45</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-63,81; 44,08</t>
+          <t>-39,41; 223,52</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-41,11; 99,01</t>
+          <t>12,06; 408,74</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-12,55; 75,74</t>
+          <t>-18,13; 81,17</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-21,2; 56,13</t>
+          <t>-40,08; 54,82</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-27,29; 41,53</t>
+          <t>-40,83; 81,64</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,13; 75,0</t>
+          <t>-10,81; 88,1</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-25,61; 42,15</t>
+          <t>-29,51; 54,06</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-21,95; 38,84</t>
+          <t>-7,84; 104,93</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,17 +1280,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,72</t>
+          <t>2,18</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,63</t>
+          <t>1,25</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,95</t>
+          <t>1,79</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1300,27 +1300,27 @@
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,31</t>
+          <t>0,18</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>1,95</t>
+          <t>1,39</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>1,1</t>
+          <t>1,79</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,18</t>
+          <t>0,7</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>2,14</t>
+          <t>1,66</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 2,24</t>
+          <t>0,73; 3,95</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 2,02</t>
+          <t>-0,19; 2,68</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,53; 3,58</t>
+          <t>0,46; 3,23</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 3,87</t>
+          <t>-1,08; 3,67</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,78; 2,18</t>
+          <t>-1,93; 2,7</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 4,76</t>
+          <t>-1,06; 3,52</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 2,58</t>
+          <t>0,3; 3,27</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 1,5</t>
+          <t>-0,62; 2,08</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,54; 3,71</t>
+          <t>0,23; 3,12</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>50,38%</t>
+          <t>122,13%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>43,9%</t>
+          <t>69,98%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>136,75%</t>
+          <t>100,08%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>24,77%</t>
+          <t>19,89%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-5,36%</t>
+          <t>2,5%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>33,86%</t>
+          <t>19,53%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>30,51%</t>
+          <t>39,03%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>4,97%</t>
+          <t>15,24%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>59,43%</t>
+          <t>36,23%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-47,21; 252,45</t>
+          <t>24,83; 318,89</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-39,41; 223,52</t>
+          <t>-9,17; 224,32</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>12,5; 408,47</t>
+          <t>14,94; 261,4</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-18,13; 81,17</t>
+          <t>-13,65; 59,19</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-40,08; 54,82</t>
+          <t>-23,77; 45,26</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-17,24; 107,68</t>
+          <t>-12,94; 58,01</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-10,81; 88,1</t>
+          <t>5,42; 83,35</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-29,51; 54,06</t>
+          <t>-12,46; 53,09</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>12,37; 126,64</t>
+          <t>3,83; 78,25</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>2,18</t>
+          <t>1,01</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>1,25</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>1,85</t>
+          <t>1,09</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>1,42</t>
+          <t>1,91</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,18</t>
+          <t>0,64</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>1,88</t>
+          <t>0,71</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>1,79</t>
+          <t>1,47</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,7</t>
+          <t>0,36</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>1,96</t>
+          <t>0,92</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,73; 3,95</t>
+          <t>0,16; 1,83</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,19; 2,68</t>
+          <t>-0,63; 0,75</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0,48; 3,29</t>
+          <t>0,11; 1,9</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 3,67</t>
+          <t>0,64; 3,25</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-1,93; 2,7</t>
+          <t>-0,59; 1,9</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-0,39; 3,79</t>
+          <t>-0,9; 1,92</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0,3; 3,27</t>
+          <t>0,67; 2,19</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 2,08</t>
+          <t>-0,27; 1,17</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0,56; 3,33</t>
+          <t>0,05; 1,63</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>122,13%</t>
+          <t>47,41%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>69,98%</t>
+          <t>2,15%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>103,34%</t>
+          <t>51,0%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>19,89%</t>
+          <t>29,52%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>2,5%</t>
+          <t>9,98%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>26,37%</t>
+          <t>11,02%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>39,03%</t>
+          <t>34,04%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>15,24%</t>
+          <t>8,42%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>42,81%</t>
+          <t>21,31%</t>
         </is>
       </c>
     </row>
@@ -1655,275 +1655,59 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>24,83; 318,89</t>
+          <t>4,37; 99,44</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-9,17; 224,32</t>
+          <t>-26,38; 43,5</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>17,65; 269,18</t>
+          <t>4,21; 102,45</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-13,65; 59,19</t>
+          <t>8,78; 55,49</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-23,77; 45,26</t>
+          <t>-8,42; 32,59</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-5,02; 63,56</t>
+          <t>-12,77; 32,85</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>5,42; 83,35</t>
+          <t>14,81; 56,27</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-12,46; 53,09</t>
+          <t>-5,81; 29,43</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>9,99; 85,61</t>
+          <t>1,11; 39,86</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>1,01</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>0,05</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>1,34</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>1,91</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>0,64</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>1,13</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>1,47</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>0,36</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>1,32</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>0,16; 1,83</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-0,63; 0,75</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>0,48; 2,14</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>0,64; 3,25</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>-0,59; 1,9</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>-0,21; 2,29</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>0,67; 2,19</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>-0,27; 1,17</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>0,53; 1,91</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>47,41%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>2,15%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>62,5%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>29,52%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>9,98%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>17,48%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>34,04%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>8,42%</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>30,46%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>4,37; 99,44</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-26,38; 43,5</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>18,29; 115,88</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>8,78; 55,49</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>-8,42; 32,59</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>-2,44; 39,73</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>14,81; 56,27</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>-5,81; 29,43</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>11,25; 48,01</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
@@ -1932,7 +1716,6 @@
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_camb/P16A07-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P16A07-Habitat-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,26; 1,17</t>
+          <t>-2,14; 1,27</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,84; 0,3</t>
+          <t>-2,94; 0,3</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,34; 3,93</t>
+          <t>-0,3; 3,9</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,85; 6,43</t>
+          <t>1,21; 6,48</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 5,25</t>
+          <t>-0,64; 5,12</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,62; 2,74</t>
+          <t>-1,36; 2,93</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,2; 3,13</t>
+          <t>-0,03; 3,26</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 2,22</t>
+          <t>-1,03; 2,19</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-0,4; 2,68</t>
+          <t>-0,27; 2,69</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-55,32; 54,82</t>
+          <t>-55,59; 60,24</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-71,19; 18,72</t>
+          <t>-73,29; 20,45</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-9,77; 178,61</t>
+          <t>-10,73; 170,71</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>12,24; 133,84</t>
+          <t>15,42; 129,42</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-6,1; 105,69</t>
+          <t>-9,53; 106,41</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-20,99; 60,09</t>
+          <t>-19,64; 64,67</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-4,3; 80,65</t>
+          <t>-1,3; 87,44</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-19,99; 57,31</t>
+          <t>-20,01; 58,2</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-7,57; 69,56</t>
+          <t>-6,77; 71,01</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 2,96</t>
+          <t>-0,45; 2,89</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,8; 0,63</t>
+          <t>-2,04; 0,6</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,87; 1,08</t>
+          <t>-1,87; 1,14</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 4,11</t>
+          <t>-0,94; 4,05</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 3,06</t>
+          <t>-1,75; 3,05</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-2,08; 2,18</t>
+          <t>-2,01; 2,09</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,02; 2,85</t>
+          <t>-0,01; 2,91</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 1,52</t>
+          <t>-1,32; 1,46</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,89; 1,05</t>
+          <t>-2,1; 0,92</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-11,09; 172,26</t>
+          <t>-16,75; 174,6</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-63,81; 44,08</t>
+          <t>-63,83; 43,2</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-63,75; 60,52</t>
+          <t>-58,76; 66,24</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-12,55; 75,74</t>
+          <t>-12,1; 77,38</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-21,2; 56,13</t>
+          <t>-21,84; 59,6</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-27,19; 42,18</t>
+          <t>-25,79; 41,37</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,13; 75,0</t>
+          <t>-0,48; 77,96</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-25,61; 42,15</t>
+          <t>-24,61; 37,98</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-37,87; 26,95</t>
+          <t>-42,48; 23,58</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 2,24</t>
+          <t>-0,68; 2,35</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 2,02</t>
+          <t>-0,71; 1,99</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,49; 3,53</t>
+          <t>0,34; 3,55</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 3,87</t>
+          <t>-1,34; 3,83</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,78; 2,18</t>
+          <t>-2,81; 1,99</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,94; 4,01</t>
+          <t>-3,58; 3,67</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 2,58</t>
+          <t>-0,47; 2,58</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 1,5</t>
+          <t>-1,12; 1,63</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 3,13</t>
+          <t>-0,47; 3,21</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-47,21; 252,45</t>
+          <t>-43,64; 301,49</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-39,41; 223,52</t>
+          <t>-40,11; 236,79</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>12,06; 408,74</t>
+          <t>8,65; 411,58</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-18,13; 81,17</t>
+          <t>-17,88; 85,02</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-40,08; 54,82</t>
+          <t>-41,45; 42,44</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-40,83; 81,64</t>
+          <t>-49,46; 74,15</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-10,81; 88,1</t>
+          <t>-11,48; 90,33</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-29,51; 54,06</t>
+          <t>-26,71; 54,77</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-7,84; 104,93</t>
+          <t>-9,62; 107,83</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,73; 3,95</t>
+          <t>0,73; 4,08</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,19; 2,68</t>
+          <t>-0,1; 2,58</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,46; 3,23</t>
+          <t>0,58; 3,18</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 3,67</t>
+          <t>-0,96; 3,86</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,93; 2,7</t>
+          <t>-1,92; 2,66</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,06; 3,52</t>
+          <t>-1,07; 3,66</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,3; 3,27</t>
+          <t>0,3; 3,28</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 2,08</t>
+          <t>-0,83; 2,15</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,23; 3,12</t>
+          <t>0,27; 2,88</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>24,83; 318,89</t>
+          <t>24,5; 298,41</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-9,17; 224,32</t>
+          <t>-7,28; 204,38</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>14,94; 261,4</t>
+          <t>17,34; 233,35</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-13,65; 59,19</t>
+          <t>-11,66; 63,28</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-23,77; 45,26</t>
+          <t>-24,21; 45,88</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-12,94; 58,01</t>
+          <t>-12,83; 62,44</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>5,42; 83,35</t>
+          <t>5,94; 86,48</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-12,46; 53,09</t>
+          <t>-15,1; 54,38</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>3,83; 78,25</t>
+          <t>5,08; 71,78</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,16; 1,83</t>
+          <t>0,18; 1,93</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 0,75</t>
+          <t>-0,7; 0,68</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0,11; 1,9</t>
+          <t>0,18; 1,88</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,64; 3,25</t>
+          <t>0,56; 3,07</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 1,9</t>
+          <t>-0,54; 1,77</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 1,92</t>
+          <t>-0,88; 1,85</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0,67; 2,19</t>
+          <t>0,67; 2,31</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 1,17</t>
+          <t>-0,34; 1,09</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0,05; 1,63</t>
+          <t>0,1; 1,71</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>4,37; 99,44</t>
+          <t>5,48; 102,5</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-26,38; 43,5</t>
+          <t>-27,8; 37,1</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>4,21; 102,45</t>
+          <t>7,85; 104,67</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>8,78; 55,49</t>
+          <t>6,83; 52,1</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-8,42; 32,59</t>
+          <t>-7,71; 29,55</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-12,77; 32,85</t>
+          <t>-12,63; 31,16</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>14,81; 56,27</t>
+          <t>14,21; 57,59</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-5,81; 29,43</t>
+          <t>-7,28; 27,41</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>1,11; 39,86</t>
+          <t>2,42; 43,0</t>
         </is>
       </c>
     </row>
